--- a/Stock Available from Not Received physical product/Current Stock.xlsx
+++ b/Stock Available from Not Received physical product/Current Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Stock Available from Not Received physical product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF149F-A8CC-4D40-B63D-770B6D7D5E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A637B84E-340A-4753-AD62-6DC975105DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4815B4F6-FE69-4A17-8E4F-70DF6941189F}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Good </t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>SERVOSYSTEM 46 - 20L BUC</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>7421234</v>
+        <v>7271111</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>9600</v>
+        <v>6240</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1318,42 +1318,42 @@
         <v>7271111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
-        <v>6240</v>
+        <v>10080</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>7271111</v>
+        <v>7079401</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
-        <v>10080</v>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>70</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1361,22 +1361,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>7079401</v>
+        <v>7427401</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
-        <v>420</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,22 +1384,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>7427401</v>
+        <v>7427213</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+      <c r="D6" s="3">
+        <v>6456</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3">
-        <v>420</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,22 +1407,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>7427213</v>
+        <v>7420213</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4">
-        <v>6456</v>
+        <v>6300</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4">
-        <v>672</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1433,19 +1433,19 @@
         <v>7420213</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
-        <v>6300</v>
+        <v>5812</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,16 +1453,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>7420213</v>
+        <v>7209213</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>5812</v>
+        <v>15540</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -1476,91 +1476,91 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>7209213</v>
+        <v>2968213</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>15540</v>
+        <v>6008</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G10" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>2968213</v>
+        <v>2557195</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4">
-        <v>6008</v>
+        <v>4200</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>2557195</v>
+        <v>7232184</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="3">
-        <v>4200</v>
+        <v>6020</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>7232184</v>
+        <v>7638234</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>6020</v>
+        <v>8400</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -1571,42 +1571,42 @@
         <v>7638234</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>7638234</v>
+        <v>7421234</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D15" s="4">
-        <v>7800</v>
+        <v>9600</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1617,13 +1617,13 @@
         <v>7205222</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>6880</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
@@ -1640,19 +1640,19 @@
         <v>7330242</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>670</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>7330265</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="3">
         <v>1300</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3">
         <v>20</v>
@@ -1686,13 +1686,13 @@
         <v>7670213</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>4860</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="4">
         <v>5</v>
@@ -1709,19 +1709,19 @@
         <v>2540199</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3">
         <v>3000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G20" s="3">
-        <v>285.60000000000002</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,19 +1732,19 @@
         <v>7600184</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4">
         <v>6780</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="4">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G21" s="4">
-        <v>1120</v>
+        <v>780</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,19 +1755,19 @@
         <v>7600203</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3">
         <v>4068</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="G22" s="3">
-        <v>2232</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1778,19 +1778,19 @@
         <v>7688203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="4">
         <v>4308</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="4">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4">
-        <v>516</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,19 +1801,19 @@
         <v>7688213</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3">
         <v>5028</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
-        <v>196</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1824,13 +1824,13 @@
         <v>7470401</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>2900145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="3">
         <v>4600</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1870,19 +1870,19 @@
         <v>2900125</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4">
         <v>5400</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>2900184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3">
         <v>7140</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1916,13 +1916,13 @@
         <v>2900175</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4">
         <v>3760</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="4">
         <v>3</v>
@@ -1939,13 +1939,13 @@
         <v>2900103</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3">
         <v>6600</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -1962,13 +1962,13 @@
         <v>2924229</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4">
         <v>7600</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>2931184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3">
         <v>8700</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>2829230</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="4">
         <v>8440</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="4">
         <v>5</v>
@@ -2031,13 +2031,13 @@
         <v>2828229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3">
         <v>9280</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="3">
         <v>3</v>
@@ -2054,13 +2054,13 @@
         <v>2914175</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="4">
         <v>6040</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
@@ -2077,13 +2077,13 @@
         <v>2914165</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="3">
         <v>3180</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
@@ -2100,19 +2100,19 @@
         <v>2909165</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4">
         <v>2200</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>2909175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="3">
         <v>4240</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="3">
         <v>6</v>
@@ -2146,13 +2146,13 @@
         <v>7472184</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4">
         <v>6380</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>2967204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3">
         <v>6884</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G40" s="3">
-        <v>288</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2192,19 +2192,19 @@
         <v>2967111</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="4">
         <v>8020</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G41" s="4">
-        <v>308</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2215,13 +2215,13 @@
         <v>2502401</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F42" s="3">
         <v>2</v>
@@ -2238,19 +2238,19 @@
         <v>2502234</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="4">
         <v>6980</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>2502265</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3">
         <v>6830</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>2502184</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" s="4">
         <v>7100</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G45" s="4">
-        <v>340</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -2307,19 +2307,19 @@
         <v>2502174</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="3">
         <v>7520</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3">
         <v>8</v>
       </c>
-      <c r="F46" s="3">
-        <v>10</v>
-      </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2330,13 +2330,13 @@
         <v>7511184</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>7800</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="4">
         <v>10</v>
@@ -2353,13 +2353,13 @@
         <v>7511401</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -2376,19 +2376,19 @@
         <v>7511251</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="4">
         <v>2763</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="4">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2399,13 +2399,13 @@
         <v>7705313</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="3">
         <v>4500</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="3">
         <v>10</v>
@@ -2422,19 +2422,19 @@
         <v>7705303</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4">
         <v>4600</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="4">
         <v>8</v>
       </c>
-      <c r="F51" s="4">
-        <v>9</v>
-      </c>
       <c r="G51" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2445,19 +2445,19 @@
         <v>7211213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" s="3">
         <v>6300</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2468,13 +2468,13 @@
         <v>2927152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4">
         <v>6840</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="4">
         <v>3</v>
@@ -2491,19 +2491,19 @@
         <v>2933156</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="3">
         <v>6480</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="3">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2514,13 +2514,13 @@
         <v>7584401</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
@@ -2537,13 +2537,13 @@
         <v>7584175</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="3">
         <v>4060</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2560,13 +2560,13 @@
         <v>7584184</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4">
         <v>7400</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="4">
         <v>13</v>
@@ -2583,13 +2583,13 @@
         <v>7577401</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>7577256</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4">
         <v>5025</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="4">
         <v>0</v>
@@ -2629,19 +2629,19 @@
         <v>7577184</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="3">
         <v>6900</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" s="3">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2652,13 +2652,13 @@
         <v>7577174</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61" s="4">
         <v>7320</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" s="4">
         <v>6</v>
@@ -2675,13 +2675,13 @@
         <v>7577234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3">
         <v>6780</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>7577240</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="4">
         <v>6780</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F63" s="4">
         <v>16</v>
@@ -2721,19 +2721,19 @@
         <v>1404184</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" s="3">
         <v>6800</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F64" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2744,13 +2744,13 @@
         <v>1404184</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65" s="4">
         <v>7100</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="4">
         <v>3</v>
@@ -2767,19 +2767,19 @@
         <v>1404234</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="3">
         <v>7100</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
@@ -2790,13 +2790,13 @@
         <v>7436253</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="4">
         <v>6175</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F67" s="4">
         <v>0</v>
@@ -2813,13 +2813,13 @@
         <v>7436250</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="3">
         <v>3113</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>7556234</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4">
         <v>6900</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="4">
         <v>0</v>
@@ -2859,13 +2859,13 @@
         <v>7556184</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="3">
         <v>7100</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>7556241</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="4">
         <v>3400</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="4">
         <v>0</v>
@@ -2905,13 +2905,13 @@
         <v>7556253</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3">
         <v>5025</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>7556250</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4">
         <v>2563</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" s="4">
         <v>3</v>
@@ -2951,13 +2951,13 @@
         <v>7489253</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3">
         <v>5675</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2974,13 +2974,13 @@
         <v>7489265</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="4">
         <v>7500</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" s="4">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>7489184</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3">
         <v>7900</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3020,13 +3020,13 @@
         <v>7489234</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="4">
         <v>7700</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="4">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>2889156</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3">
         <v>6840</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="3">
         <v>3</v>
@@ -3066,19 +3066,19 @@
         <v>7485242</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="4">
         <v>2890</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G79" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3089,19 +3089,19 @@
         <v>7485265</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3">
         <v>5740</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G80" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3112,19 +3112,19 @@
         <v>7485184</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4">
         <v>6040</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G81" s="4">
-        <v>660</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3135,19 +3135,19 @@
         <v>7485174</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" s="3">
         <v>6240</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F82" s="3">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G82" s="3">
-        <v>480</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3158,19 +3158,19 @@
         <v>7485234</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4">
         <v>6020</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G83" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3181,13 +3181,13 @@
         <v>7485251</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="3">
         <v>2176</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3">
         <v>3</v>
@@ -3204,13 +3204,13 @@
         <v>7208271</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
@@ -3227,19 +3227,19 @@
         <v>4906175</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="3">
         <v>3960</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3250,13 +3250,13 @@
         <v>4906184</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="4">
         <v>7500</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="4">
         <v>6</v>
@@ -3273,13 +3273,13 @@
         <v>7705451</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F88" s="3">
         <v>3</v>
@@ -3296,13 +3296,13 @@
         <v>7705339</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="4">
         <v>2030</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" s="4">
         <v>3</v>
@@ -3319,13 +3319,13 @@
         <v>7705341</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3">
         <v>8000</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="3">
         <v>4</v>
@@ -3342,13 +3342,13 @@
         <v>7705337</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="4">
         <v>4940</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="4">
         <v>0</v>
@@ -3365,19 +3365,19 @@
         <v>3040265</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="3">
         <v>4575</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F92" s="3">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G92" s="3">
-        <v>2540</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3388,13 +3388,13 @@
         <v>3001265</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="4">
         <v>5010</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F93" s="4">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>3002265</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="3">
         <v>5082</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3434,13 +3434,13 @@
         <v>3006401</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -3457,13 +3457,13 @@
         <v>3006265</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" s="3">
         <v>5336</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F96" s="3">
         <v>13</v>
@@ -3480,13 +3480,13 @@
         <v>3006403</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F97" s="4">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>3006234</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" s="3">
         <v>5532</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F98" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G98" s="3">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3526,13 +3526,13 @@
         <v>3084401</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F99" s="4">
         <v>0</v>
